--- a/medicine/Handicap/Saccade_(communication)/Saccade_(communication).xlsx
+++ b/medicine/Handicap/Saccade_(communication)/Saccade_(communication).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">SACCADE est un modèle neuro-développemental qui utilise la remédiation pédagogique et cognitive en autisme, issu d'un centre d'expertise en autisme situé dans la région de Québec. Il se base sur la rencontre de Lise Saint-Charles, une spécialiste de l'autisme qui travaillait dans le Centre de réadaptation en déficience intellectuelle (CRDI) du Bas-Saint-Laurent, et Brigitte Harrisson, travailleuse sociale elle-même autiste.
 Le modèle comprend plusieurs méthodes, dont l'utilisation d'un code écrit appelée Langage SACCADE Conceptuel (LSC), conçu pour aider les personnes autistes à passer de la pensée visuelle à la pensée verbale et à développer leurs facultés de communication avec les non-autistes.
@@ -512,11 +524,13 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brigitte Harrisson conçoit l'autisme comme un mode perceptif et cognitif particulier, qu'elle nomme structure autistique. Pour elle, la personne autiste qui ne peut comprendre les situations sociales utilisera son corps afin de gérer le stress provoqué, ce qui produira des situations et comportements inappropriés (voir stéréotypie)[1].
-Les compétences cognitives que lui permet d'acquérir le Langage Saccade Conceptuel améliorent la faculté de la personne autiste à initier un contact et réduisent son temps de réaction face à une stimulation de type social[1].
-Harrisson compare ce langage à l'alphabet braille pour les aveugles, et à la langue des signes pour les sourds[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brigitte Harrisson conçoit l'autisme comme un mode perceptif et cognitif particulier, qu'elle nomme structure autistique. Pour elle, la personne autiste qui ne peut comprendre les situations sociales utilisera son corps afin de gérer le stress provoqué, ce qui produira des situations et comportements inappropriés (voir stéréotypie).
+Les compétences cognitives que lui permet d'acquérir le Langage Saccade Conceptuel améliorent la faculté de la personne autiste à initier un contact et réduisent son temps de réaction face à une stimulation de type social.
+Harrisson compare ce langage à l'alphabet braille pour les aveugles, et à la langue des signes pour les sourds.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Lien avec la recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme le précise Harrisson, la méthode Saccade ne vise pas à guérir de l'autisme, mais à permettre à chaque personne autiste d'accéder à son plein potentiel d'apprentissage[3]. Cette méthode s'est construite au Québec en contrepoint de l'Analyse appliquée du comportement (ABA)[3] ; il est en effet conçu comme moins onéreux et moins agressif que l'ABA[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme le précise Harrisson, la méthode Saccade ne vise pas à guérir de l'autisme, mais à permettre à chaque personne autiste d'accéder à son plein potentiel d'apprentissage. Cette méthode s'est construite au Québec en contrepoint de l'Analyse appliquée du comportement (ABA) ; il est en effet conçu comme moins onéreux et moins agressif que l'ABA.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le modèle Saccade a été implanté dans plusieurs établissements au Québec et en France. Il est possible de suivre les formations SACACDE en salle et en ligne.
 </t>
@@ -607,10 +625,12 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque commerciale SACCADE est enregistrée dans le répertoire canadien des marques commerciales sous le numéro 2102186[5].
-Cette marque commerciale est la propriété de SACCADE INC.[6] enregistrée comme entreprise canadienne sous le numéro d'entreprise du Québec 1163977151 dont le siège social est situé 250-2500 Rue Beaurevoir, Québec Québec G2C0M4, Canada dont les actionnaires sont : Gestion Brigitte Harrisson inc. ; Gestion Lise St-Charles inc. ; et Harrisson Brigitte.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque commerciale SACCADE est enregistrée dans le répertoire canadien des marques commerciales sous le numéro 2102186.
+Cette marque commerciale est la propriété de SACCADE INC. enregistrée comme entreprise canadienne sous le numéro d'entreprise du Québec 1163977151 dont le siège social est situé 250-2500 Rue Beaurevoir, Québec Québec G2C0M4, Canada dont les actionnaires sont : Gestion Brigitte Harrisson inc. ; Gestion Lise St-Charles inc. ; et Harrisson Brigitte.
 </t>
         </is>
       </c>
